--- a/Results/Results_S3.xlsx
+++ b/Results/Results_S3.xlsx
@@ -1,21 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ceed2c7b5297a/Desktop/Copper Research/Copper2.0/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F1B85ECE8F79A8D366075C52F37BD272AA40A21C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1539BDD9-D9DE-454B-8932-389B8CF2F3DD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>total_prod</t>
+  </si>
+  <si>
+    <t>total_mines_opened</t>
+  </si>
+  <si>
+    <t>Cap_expansions</t>
+  </si>
+  <si>
+    <t>Cap_added</t>
+  </si>
+  <si>
+    <t>Cobalt_production</t>
+  </si>
+  <si>
+    <t>sum_ore</t>
+  </si>
+  <si>
+    <t>Avg_Grade</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +101,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,113 +398,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G2" activeCellId="1" sqref="A2:A29 G2:H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>total_prod</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total_mines_opened</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cap_expansions</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cap_added</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cobalt_production</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sum_ore</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_Grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999991813</v>
+        <v>21.136029999912399</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.720575753220851E-07</v>
+        <v>-7.7205663555217921E-7</v>
       </c>
       <c r="F2">
-        <v>0.2351742345542829</v>
+        <v>0.23648810312876331</v>
       </c>
       <c r="G2">
-        <v>3699.644628098565</v>
+        <v>3714.2872782158829</v>
       </c>
       <c r="H2">
-        <v>0.5712989252911302</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.56904672193435857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.87472654997493</v>
+        <v>21.874726549973609</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3.86029E-07</v>
+        <v>3.86029E-7</v>
       </c>
       <c r="F3">
-        <v>0.28171012469965</v>
+        <v>0.28246807660600992</v>
       </c>
       <c r="G3">
-        <v>3771.96510132848</v>
+        <v>3779.525173766735</v>
       </c>
       <c r="H3">
-        <v>0.5799291871038437</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.57876917190031318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.61282812997872</v>
+        <v>22.612828129980802</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,24 +499,24 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.860285753220851E-07</v>
+        <v>3.8602763555217932E-7</v>
       </c>
       <c r="F4">
-        <v>0.3011220799917114</v>
+        <v>0.30239897918422509</v>
       </c>
       <c r="G4">
-        <v>3925.456773840329</v>
+        <v>3936.885510349226</v>
       </c>
       <c r="H4">
-        <v>0.5760559708789322</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.57438368655975724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.31729932014193</v>
+        <v>23.317299320061061</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,21 +528,24 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3145848778544616</v>
+        <v>0.31575007663038013</v>
       </c>
       <c r="G5">
-        <v>4098.742467861719</v>
+        <v>4104.2008428782428</v>
       </c>
       <c r="H5">
-        <v>0.56888910447468</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.56813251136386478</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>24.10071432995536</v>
+        <v>24.100714329954801</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,21 +557,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.31905635289377</v>
+        <v>0.32010774622189719</v>
       </c>
       <c r="G6">
-        <v>4318.507115792898</v>
+        <v>4300.3993413493527</v>
       </c>
       <c r="H6">
-        <v>0.5580797642272809</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.56042968145355154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>24.98359055991388</v>
+        <v>24.983590559967318</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -543,362 +580,362 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>14.662803998</v>
+        <v>14.662803997999999</v>
       </c>
       <c r="F7">
-        <v>0.3637309113329281</v>
+        <v>0.36446173774870011</v>
       </c>
       <c r="G7">
-        <v>4503.812671693563</v>
+        <v>4522.7391313151929</v>
       </c>
       <c r="H7">
-        <v>0.5547209082858975</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.55239954891455789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>25.97364393996274</v>
+        <v>25.9736439399625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>27.11573065546909</v>
+        <v>27.087389002344089</v>
       </c>
       <c r="F8">
-        <v>0.3649074704049949</v>
+        <v>0.36624091360563288</v>
       </c>
       <c r="G8">
-        <v>4624.339865794295</v>
+        <v>4633.3462139669018</v>
       </c>
       <c r="H8">
-        <v>0.5616724698823883</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.56058068489824375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>27.19861199996502</v>
+        <v>27.19861199996539</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>52.29515737252962</v>
+        <v>37.852331504306761</v>
       </c>
       <c r="F9">
-        <v>0.3850403245331085</v>
+        <v>0.3861803245271091</v>
       </c>
       <c r="G9">
-        <v>4787.281140092849</v>
+        <v>4786.3565858544234</v>
       </c>
       <c r="H9">
-        <v>0.5681431945197499</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.56825293962317902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>27.65727880996346</v>
+        <v>27.657278809963451</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>180.0866092285261</v>
+        <v>135.0492182586195</v>
       </c>
       <c r="F10">
-        <v>0.3885236500309227</v>
+        <v>0.3891749349925625</v>
       </c>
       <c r="G10">
-        <v>4922.665281110443</v>
+        <v>4883.7028352074003</v>
       </c>
       <c r="H10">
-        <v>0.5618354535721064</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.56631780727069769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>28.13506880996469</v>
+        <v>28.135068809966349</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>198.3337271388625</v>
+        <v>196.66703050080841</v>
       </c>
       <c r="F11">
-        <v>0.3868914203057914</v>
+        <v>0.38636591942208132</v>
       </c>
       <c r="G11">
-        <v>5065.694716132711</v>
+        <v>5043.8698397718563</v>
       </c>
       <c r="H11">
-        <v>0.5554039551645893</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.55780719375658883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>28.63982071999477</v>
+        <v>28.639820719994741</v>
       </c>
       <c r="C12">
-        <v>22.00000001585198</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>357.9980077373276</v>
+        <v>344.48309676593198</v>
       </c>
       <c r="F12">
-        <v>0.3360532062964193</v>
+        <v>0.33834043285579712</v>
       </c>
       <c r="G12">
-        <v>5314.139464434205</v>
+        <v>5278.6399218981196</v>
       </c>
       <c r="H12">
-        <v>0.5389361892301041</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.54256060545414686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>29.14126173995329</v>
+        <v>29.141261739965749</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>382.8989957016228</v>
+        <v>362.73132658564208</v>
       </c>
       <c r="F13">
-        <v>0.3221172817448618</v>
+        <v>0.32408624974720068</v>
       </c>
       <c r="G13">
-        <v>5470.498898963279</v>
+        <v>5459.4872757978383</v>
       </c>
       <c r="H13">
-        <v>0.5326984298539185</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.53377286671498103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>29.5881401899221</v>
+        <v>29.58814018994093</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>278.2688954177274</v>
+        <v>313.83226964905538</v>
       </c>
       <c r="F14">
-        <v>0.3195921912244294</v>
+        <v>0.32432805864114611</v>
       </c>
       <c r="G14">
-        <v>5649.969941524337</v>
+        <v>5619.7483823204911</v>
       </c>
       <c r="H14">
-        <v>0.5236866832240058</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.52650293530977399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>29.64639327995081</v>
+        <v>29.6463932799759</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>199.5777397637928</v>
+        <v>207.9178733887301</v>
       </c>
       <c r="F15">
-        <v>0.306184312350281</v>
+        <v>0.3118561880446199</v>
       </c>
       <c r="G15">
-        <v>5715.197512154228</v>
+        <v>5705.441129783494</v>
       </c>
       <c r="H15">
-        <v>0.5187291115819408</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.51961614545834256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>29.70862666994723</v>
+        <v>29.70862666997564</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>196.1643594117751</v>
+        <v>215.78215817007239</v>
       </c>
       <c r="F16">
-        <v>0.280823385517004</v>
+        <v>0.28657224349637461</v>
       </c>
       <c r="G16">
-        <v>5821.999462427905</v>
+        <v>5819.3842438403499</v>
       </c>
       <c r="H16">
-        <v>0.5102821953466492</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.51051151505284031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>29.75296581998388</v>
+        <v>29.75296581999827</v>
       </c>
       <c r="C17">
-        <v>4.999999967193031</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>190.1449911612662</v>
+        <v>199.56529102374211</v>
       </c>
       <c r="F17">
-        <v>0.2731226061730478</v>
+        <v>0.27852843128459581</v>
       </c>
       <c r="G17">
-        <v>5881.658630700778</v>
+        <v>5867.5989534115643</v>
       </c>
       <c r="H17">
-        <v>0.5058601270172479</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.5070722463521331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>29.75198739001241</v>
+        <v>29.7519873899742</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3.9999999842458891</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>185.7362583290583</v>
+        <v>159.53554258539671</v>
       </c>
       <c r="F18">
-        <v>0.2754125698901706</v>
+        <v>0.28163535105094922</v>
       </c>
       <c r="G18">
-        <v>5994.668438041499</v>
+        <v>5986.0320774497459</v>
       </c>
       <c r="H18">
-        <v>0.4963074721732665</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.49702352084036222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>29.72817340004127</v>
+        <v>29.728173399979511</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>113.8335834519725</v>
+        <v>117.0538666364601</v>
       </c>
       <c r="F19">
-        <v>0.2755342349209366</v>
+        <v>0.28341300550984089</v>
       </c>
       <c r="G19">
-        <v>6029.758727766939</v>
+        <v>6017.6614548759289</v>
       </c>
       <c r="H19">
-        <v>0.493024260873715</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.49401538492817121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>29.46827902007383</v>
+        <v>29.46827901997338</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>50.50974981344313</v>
+        <v>62.072273989695347</v>
       </c>
       <c r="F20">
-        <v>0.2716979711482645</v>
+        <v>0.28009374531712161</v>
       </c>
       <c r="G20">
-        <v>5990.124891038467</v>
+        <v>5976.9552480905713</v>
       </c>
       <c r="H20">
-        <v>0.491947656453038</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.49303161554350722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>29.19070742999475</v>
+        <v>29.190707429974111</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -907,79 +944,79 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>15.51847646594747</v>
+        <v>16.81680125250405</v>
       </c>
       <c r="F21">
-        <v>0.2504388517348709</v>
+        <v>0.25917048661615011</v>
       </c>
       <c r="G21">
-        <v>5970.319080647359</v>
+        <v>5975.5424464093803</v>
       </c>
       <c r="H21">
-        <v>0.488930441332955</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.48850305544251288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>28.86924806009872</v>
+        <v>28.869248059972868</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>6.498237330999999</v>
+        <v>6.105150835073867</v>
       </c>
       <c r="F22">
-        <v>0.2393463219810893</v>
+        <v>0.24807795685064121</v>
       </c>
       <c r="G22">
-        <v>5942.243349652207</v>
+        <v>5959.4535880252197</v>
       </c>
       <c r="H22">
-        <v>0.4858307942199709</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.48442776898174073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>28.50865390010011</v>
+        <v>28.508653899951032</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.5703089668176476</v>
+        <v>0.153541385</v>
       </c>
       <c r="F23">
-        <v>0.2391258498278924</v>
+        <v>0.2476310415206418</v>
       </c>
       <c r="G23">
-        <v>5869.659943872871</v>
+        <v>5869.3806326511394</v>
       </c>
       <c r="H23">
-        <v>0.4856951539391866</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.48571826712615102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>28.11251275007502</v>
+        <v>28.11251274995411</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-8.7060039562713126E-7</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -988,143 +1025,143 @@
         <v>0.153541385</v>
       </c>
       <c r="F24">
-        <v>0.2413327643336584</v>
+        <v>0.24763239843714799</v>
       </c>
       <c r="G24">
-        <v>5799.015881458923</v>
+        <v>5806.3505513561122</v>
       </c>
       <c r="H24">
-        <v>0.4847807511608752</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.48416836877663622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>27.60377141016985</v>
+        <v>27.603771410028472</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.000000870448881</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25">
-        <v>5.574858163783994</v>
+        <v>14.403791277600209</v>
       </c>
       <c r="F25">
-        <v>0.2377553076402043</v>
+        <v>0.24405494174369091</v>
       </c>
       <c r="G25">
-        <v>5710.42169009854</v>
+        <v>5708.1361621876886</v>
       </c>
       <c r="H25">
-        <v>0.4833928719840918</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.48358642165692661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>27.0879645800818</v>
+        <v>27.087964579935932</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3.9999999182514778</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>87.02397580801848</v>
+        <v>92.348884747913061</v>
       </c>
       <c r="F26">
-        <v>0.2343989402489083</v>
+        <v>0.24069857435239639</v>
       </c>
       <c r="G26">
-        <v>5614.797729890081</v>
+        <v>5615.1948786543726</v>
       </c>
       <c r="H26">
-        <v>0.4824388318724366</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.48240471017147141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>26.58533133007838</v>
+        <v>26.585331329940711</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5.0000000185265874</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>150.7941589417774</v>
+        <v>167.58180905319031</v>
       </c>
       <c r="F27">
-        <v>0.2293912657898101</v>
+        <v>0.2353152980716344</v>
       </c>
       <c r="G27">
-        <v>5539.129943609786</v>
+        <v>5537.3177721030625</v>
       </c>
       <c r="H27">
-        <v>0.4799550037772364</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.48011207635359632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>26.09330177008198</v>
+        <v>26.093301769937771</v>
       </c>
       <c r="C28">
-        <v>10.99999964020601</v>
+        <v>9.9999999656086356</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>204.7071348882639</v>
+        <v>233.0708514475522</v>
       </c>
       <c r="F28">
-        <v>0.2197712757224326</v>
+        <v>0.22607090982592171</v>
       </c>
       <c r="G28">
-        <v>5506.9436025078</v>
+        <v>5529.9736048239456</v>
       </c>
       <c r="H28">
-        <v>0.473825476589217</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.47185219378218879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>25.60492331008215</v>
+        <v>25.604923309931579</v>
       </c>
       <c r="C29">
-        <v>7.99999941093022</v>
+        <v>10.00000005418431</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29">
-        <v>203.9222250679427</v>
+        <v>225.58198788818149</v>
       </c>
       <c r="F29">
-        <v>0.2202594373860667</v>
+        <v>0.22524520291507519</v>
       </c>
       <c r="G29">
-        <v>5409.009014398774</v>
+        <v>5411.9575416197031</v>
       </c>
       <c r="H29">
-        <v>0.4733754970997807</v>
+        <v>0.47311759401328329</v>
       </c>
     </row>
   </sheetData>
